--- a/Mifos Automation Excels/Client/535-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/535-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
   </bookViews>
   <sheets>
-    <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
+    <sheet name="Input" sheetId="9" r:id="rId1"/>
     <sheet name="Summary" sheetId="13" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
     <sheet name="Transactions" sheetId="18" r:id="rId4"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
   <si>
-    <t>transactiondate</t>
-  </si>
-  <si>
     <t>Repayment</t>
   </si>
   <si>
@@ -101,13 +95,28 @@
   </si>
   <si>
     <t>Over Due</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,17 +125,6 @@
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -161,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -180,13 +178,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -502,15 +508,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>42019</v>
@@ -526,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -538,23 +544,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -642,10 +648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -654,52 +660,53 @@
     <col min="15" max="15" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="C2" s="6">
         <v>42005</v>
@@ -723,7 +730,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -764,11 +771,11 @@
       <c r="N3" s="5">
         <v>0</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -807,11 +814,11 @@
       <c r="N4" s="5">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>888.17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -850,11 +857,11 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>924.45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -893,11 +900,11 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>924.45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -936,11 +943,11 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>899.45</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -979,11 +986,11 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>891.12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1022,11 +1029,11 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>882.78</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1065,11 +1072,11 @@
       <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>874.45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1108,11 +1115,11 @@
       <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>866.12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1151,11 +1158,11 @@
       <c r="N12" s="5">
         <v>0</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>857.78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1194,11 +1201,11 @@
       <c r="N13" s="5">
         <v>0</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>849.45</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1237,7 +1244,7 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>786.32</v>
       </c>
     </row>
@@ -1248,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1261,83 +1268,101 @@
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10">
         <v>42019</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
         <v>933.33</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="9">
         <v>888.17</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="9">
         <v>45.16</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>9111.83</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
         <v>10000</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/535-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/535-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -203,6 +208,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -250,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +291,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -648,19 +690,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -698,15 +740,16 @@
       <c r="M1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="C2" s="6">
         <v>42005</v>
@@ -729,8 +772,9 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -768,14 +812,15 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -811,14 +856,15 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>888.17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -854,14 +900,15 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>924.45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -897,14 +944,15 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>924.45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -940,14 +988,15 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>899.45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -983,14 +1032,15 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>891.12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1026,14 +1076,15 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>882.78</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1069,14 +1120,15 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>874.45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1112,14 +1164,15 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>866.12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1155,14 +1208,15 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>857.78</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1198,14 +1252,15 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>849.45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1241,10 +1296,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>786.32</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/535-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/535-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
@@ -120,14 +115,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -197,6 +197,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,26 +294,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,23 +329,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,7 +543,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,86 +662,89 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="6">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="3">
         <v>10000</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -804,18 +776,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <v>933.33</v>
+        <v>45.16</v>
       </c>
       <c r="L3" s="5">
         <v>933.33</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <v>888.17</v>
+      </c>
       <c r="O3" s="5">
         <v>0</v>
       </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
@@ -853,13 +826,14 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
       <c r="O4" s="5">
         <v>0</v>
       </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5">
         <v>888.17</v>
       </c>
@@ -897,13 +871,14 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
       <c r="O5" s="5">
         <v>0</v>
       </c>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5">
         <v>924.45</v>
       </c>
@@ -941,13 +916,14 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
       <c r="O6" s="5">
         <v>0</v>
       </c>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5">
         <v>924.45</v>
       </c>
@@ -985,13 +961,14 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="5">
         <v>0</v>
       </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5">
         <v>899.45</v>
       </c>
@@ -1029,13 +1006,14 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
       <c r="O8" s="5">
         <v>0</v>
       </c>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5">
         <v>891.12</v>
       </c>
@@ -1073,13 +1051,14 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
       <c r="O9" s="5">
         <v>0</v>
       </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5">
         <v>882.78</v>
       </c>
@@ -1117,13 +1096,14 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
       <c r="O10" s="5">
         <v>0</v>
       </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5">
         <v>874.45</v>
       </c>
@@ -1161,13 +1141,14 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
       <c r="O11" s="5">
         <v>0</v>
       </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5">
         <v>866.12</v>
       </c>
@@ -1205,13 +1186,14 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
       <c r="O12" s="5">
         <v>0</v>
       </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5">
         <v>857.78</v>
       </c>
@@ -1249,13 +1231,14 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
       <c r="O13" s="5">
         <v>0</v>
       </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5">
         <v>849.45</v>
       </c>
@@ -1293,13 +1276,14 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
       <c r="O14" s="5">
         <v>0</v>
       </c>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5">
         <v>786.32</v>
       </c>
